--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-poland - WIP\InputData\elec\BDSBaPCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -26,9 +31,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -38,9 +40,6 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -108,12 +107,24 @@
   </si>
   <si>
     <t>None needed.  See notes below.</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,6 +178,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -214,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -474,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,77 +498,77 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -567,9 +581,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -579,12 +595,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -592,7 +608,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -600,7 +616,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -608,7 +624,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -616,7 +632,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -624,7 +640,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -632,7 +648,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -640,15 +656,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -656,18 +672,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
